--- a/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem (Autosaved).xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem (Autosaved).xlsx
@@ -20,7 +20,7 @@
     <sheet name="Sumário" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$119</definedName>
+    <definedName name="CF">Funções!$K$8:$K$118</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="117">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -943,9 +943,6 @@
   </si>
   <si>
     <t>Razão</t>
-  </si>
-  <si>
-    <t>Extrato Unidade</t>
   </si>
   <si>
     <t>Total Geral</t>
@@ -1951,39 +1948,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,10 +1957,106 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2026,79 +2086,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2110,44 +2110,17 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,20 +2140,35 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,8 +2188,17 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5245,36 +5242,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -5283,34 +5280,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -5320,34 +5317,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5357,45 +5354,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="87" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="87"/>
+      <c r="S4" s="91"/>
       <c r="T4" s="3">
         <v>400</v>
       </c>
-      <c r="U4" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="88">
+      <c r="U4" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="91"/>
+      <c r="W4" s="99">
         <f>W5*T4</f>
-        <v>171600</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
+        <v>168800</v>
+      </c>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5405,41 +5402,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="87" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="87"/>
-      <c r="W5" s="90">
+      <c r="V5" s="91"/>
+      <c r="W5" s="88">
         <f>SUM(Y11:Y14)</f>
-        <v>429</v>
-      </c>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
+        <v>422</v>
+      </c>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5449,36 +5446,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5488,38 +5485,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="91" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5529,38 +5526,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="91" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5606,46 +5603,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="87" t="s">
+      <c r="P10" s="93"/>
+      <c r="Q10" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87" t="s">
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87" t="s">
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5655,46 +5652,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="94" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="91" t="s">
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="91"/>
-      <c r="S11" s="90">
+      <c r="R11" s="92"/>
+      <c r="S11" s="88">
         <f>Sumário!E55</f>
-        <v>429</v>
-      </c>
-      <c r="T11" s="90"/>
-      <c r="U11" s="93">
+        <v>422</v>
+      </c>
+      <c r="T11" s="88"/>
+      <c r="U11" s="87">
         <v>1</v>
       </c>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="90">
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="88">
         <f>S11*U11</f>
-        <v>429</v>
-      </c>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
+        <v>422</v>
+      </c>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5704,46 +5701,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="94" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96" t="s">
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="96"/>
-      <c r="S12" s="90">
+      <c r="R12" s="90"/>
+      <c r="S12" s="88">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="90"/>
-      <c r="U12" s="93">
+      <c r="T12" s="88"/>
+      <c r="U12" s="87">
         <v>1</v>
       </c>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="90">
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="88">
         <f>S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5753,46 +5750,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96" t="s">
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="90">
+      <c r="R13" s="90"/>
+      <c r="S13" s="88">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="90"/>
-      <c r="U13" s="93">
+      <c r="T13" s="88"/>
+      <c r="U13" s="87">
         <v>1</v>
       </c>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="90">
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="88">
         <f>S13*U13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5802,8 +5799,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5816,26 +5813,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="90">
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="88">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="90"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="90">
+      <c r="T14" s="88"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="88">
         <f>S14*U14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5895,17 +5892,17 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5924,34 +5921,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5961,34 +5958,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5998,34 +5995,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -6035,34 +6032,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -6072,34 +6069,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -6109,34 +6106,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -6146,34 +6143,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -6183,34 +6180,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="85"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -6220,34 +6217,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -6257,34 +6254,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -6294,34 +6291,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6331,34 +6328,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6368,34 +6365,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6405,34 +6402,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6442,34 +6439,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6479,34 +6476,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6516,34 +6513,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="85"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6553,34 +6550,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="98"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="98"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
-      <c r="AB34" s="98"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6590,34 +6587,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="98"/>
-      <c r="W35" s="98"/>
-      <c r="X35" s="98"/>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
-      <c r="AB35" s="98"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6627,34 +6624,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="98"/>
-      <c r="T36" s="98"/>
-      <c r="U36" s="98"/>
-      <c r="V36" s="98"/>
-      <c r="W36" s="98"/>
-      <c r="X36" s="98"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
-      <c r="AB36" s="98"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6664,34 +6661,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="98"/>
-      <c r="S37" s="98"/>
-      <c r="T37" s="98"/>
-      <c r="U37" s="98"/>
-      <c r="V37" s="98"/>
-      <c r="W37" s="98"/>
-      <c r="X37" s="98"/>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="98"/>
-      <c r="AB37" s="98"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="85"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6701,34 +6698,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="98"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6785,17 +6782,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="97" t="s">
+      <c r="K40" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6814,34 +6811,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="98"/>
-      <c r="V41" s="98"/>
-      <c r="W41" s="98"/>
-      <c r="X41" s="98"/>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="98"/>
-      <c r="AA41" s="98"/>
-      <c r="AB41" s="98"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6851,34 +6848,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="98"/>
-      <c r="U42" s="98"/>
-      <c r="V42" s="98"/>
-      <c r="W42" s="98"/>
-      <c r="X42" s="98"/>
-      <c r="Y42" s="98"/>
-      <c r="Z42" s="98"/>
-      <c r="AA42" s="98"/>
-      <c r="AB42" s="98"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6888,34 +6885,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="98"/>
-      <c r="T43" s="98"/>
-      <c r="U43" s="98"/>
-      <c r="V43" s="98"/>
-      <c r="W43" s="98"/>
-      <c r="X43" s="98"/>
-      <c r="Y43" s="98"/>
-      <c r="Z43" s="98"/>
-      <c r="AA43" s="98"/>
-      <c r="AB43" s="98"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6925,34 +6922,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="98"/>
-      <c r="T44" s="98"/>
-      <c r="U44" s="98"/>
-      <c r="V44" s="98"/>
-      <c r="W44" s="98"/>
-      <c r="X44" s="98"/>
-      <c r="Y44" s="98"/>
-      <c r="Z44" s="98"/>
-      <c r="AA44" s="98"/>
-      <c r="AB44" s="98"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6962,34 +6959,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="98"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="98"/>
-      <c r="X45" s="98"/>
-      <c r="Y45" s="98"/>
-      <c r="Z45" s="98"/>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="98"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6999,34 +6996,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -7036,34 +7033,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="98"/>
-      <c r="T47" s="98"/>
-      <c r="U47" s="98"/>
-      <c r="V47" s="98"/>
-      <c r="W47" s="98"/>
-      <c r="X47" s="98"/>
-      <c r="Y47" s="98"/>
-      <c r="Z47" s="98"/>
-      <c r="AA47" s="98"/>
-      <c r="AB47" s="98"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -7073,34 +7070,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
-      <c r="S48" s="98"/>
-      <c r="T48" s="98"/>
-      <c r="U48" s="98"/>
-      <c r="V48" s="98"/>
-      <c r="W48" s="98"/>
-      <c r="X48" s="98"/>
-      <c r="Y48" s="98"/>
-      <c r="Z48" s="98"/>
-      <c r="AA48" s="98"/>
-      <c r="AB48" s="98"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -7110,34 +7107,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="98"/>
-      <c r="T49" s="98"/>
-      <c r="U49" s="98"/>
-      <c r="V49" s="98"/>
-      <c r="W49" s="98"/>
-      <c r="X49" s="98"/>
-      <c r="Y49" s="98"/>
-      <c r="Z49" s="98"/>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="98"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -7147,34 +7144,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="98"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="98"/>
-      <c r="R50" s="98"/>
-      <c r="S50" s="98"/>
-      <c r="T50" s="98"/>
-      <c r="U50" s="98"/>
-      <c r="V50" s="98"/>
-      <c r="W50" s="98"/>
-      <c r="X50" s="98"/>
-      <c r="Y50" s="98"/>
-      <c r="Z50" s="98"/>
-      <c r="AA50" s="98"/>
-      <c r="AB50" s="98"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="85"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="85"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -7184,34 +7181,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="98"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="98"/>
-      <c r="O51" s="98"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="98"/>
-      <c r="S51" s="98"/>
-      <c r="T51" s="98"/>
-      <c r="U51" s="98"/>
-      <c r="V51" s="98"/>
-      <c r="W51" s="98"/>
-      <c r="X51" s="98"/>
-      <c r="Y51" s="98"/>
-      <c r="Z51" s="98"/>
-      <c r="AA51" s="98"/>
-      <c r="AB51" s="98"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7221,34 +7218,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
-      <c r="R52" s="98"/>
-      <c r="S52" s="98"/>
-      <c r="T52" s="98"/>
-      <c r="U52" s="98"/>
-      <c r="V52" s="98"/>
-      <c r="W52" s="98"/>
-      <c r="X52" s="98"/>
-      <c r="Y52" s="98"/>
-      <c r="Z52" s="98"/>
-      <c r="AA52" s="98"/>
-      <c r="AB52" s="98"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7258,34 +7255,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="98"/>
-      <c r="U53" s="98"/>
-      <c r="V53" s="98"/>
-      <c r="W53" s="98"/>
-      <c r="X53" s="98"/>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="98"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7295,34 +7292,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="98"/>
-      <c r="O54" s="98"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="98"/>
-      <c r="R54" s="98"/>
-      <c r="S54" s="98"/>
-      <c r="T54" s="98"/>
-      <c r="U54" s="98"/>
-      <c r="V54" s="98"/>
-      <c r="W54" s="98"/>
-      <c r="X54" s="98"/>
-      <c r="Y54" s="98"/>
-      <c r="Z54" s="98"/>
-      <c r="AA54" s="98"/>
-      <c r="AB54" s="98"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="85"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7332,34 +7329,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="98"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="98"/>
-      <c r="R55" s="98"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="98"/>
-      <c r="U55" s="98"/>
-      <c r="V55" s="98"/>
-      <c r="W55" s="98"/>
-      <c r="X55" s="98"/>
-      <c r="Y55" s="98"/>
-      <c r="Z55" s="98"/>
-      <c r="AA55" s="98"/>
-      <c r="AB55" s="98"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7369,34 +7366,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="98"/>
-      <c r="U56" s="98"/>
-      <c r="V56" s="98"/>
-      <c r="W56" s="98"/>
-      <c r="X56" s="98"/>
-      <c r="Y56" s="98"/>
-      <c r="Z56" s="98"/>
-      <c r="AA56" s="98"/>
-      <c r="AB56" s="98"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="85"/>
+      <c r="AA56" s="85"/>
+      <c r="AB56" s="85"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7406,34 +7403,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="98"/>
-      <c r="O57" s="98"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="98"/>
-      <c r="T57" s="98"/>
-      <c r="U57" s="98"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
-      <c r="X57" s="98"/>
-      <c r="Y57" s="98"/>
-      <c r="Z57" s="98"/>
-      <c r="AA57" s="98"/>
-      <c r="AB57" s="98"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7443,34 +7440,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="98"/>
-      <c r="U58" s="98"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="98"/>
-      <c r="Y58" s="98"/>
-      <c r="Z58" s="98"/>
-      <c r="AA58" s="98"/>
-      <c r="AB58" s="98"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="85"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
+      <c r="X58" s="85"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="85"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="85"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7480,34 +7477,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="98"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="98"/>
-      <c r="Z59" s="98"/>
-      <c r="AA59" s="98"/>
-      <c r="AB59" s="98"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+      <c r="T59" s="85"/>
+      <c r="U59" s="85"/>
+      <c r="V59" s="85"/>
+      <c r="W59" s="85"/>
+      <c r="X59" s="85"/>
+      <c r="Y59" s="85"/>
+      <c r="Z59" s="85"/>
+      <c r="AA59" s="85"/>
+      <c r="AB59" s="85"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7517,34 +7514,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="98"/>
-      <c r="R60" s="98"/>
-      <c r="S60" s="98"/>
-      <c r="T60" s="98"/>
-      <c r="U60" s="98"/>
-      <c r="V60" s="98"/>
-      <c r="W60" s="98"/>
-      <c r="X60" s="98"/>
-      <c r="Y60" s="98"/>
-      <c r="Z60" s="98"/>
-      <c r="AA60" s="98"/>
-      <c r="AB60" s="98"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="85"/>
+      <c r="U60" s="85"/>
+      <c r="V60" s="85"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="85"/>
+      <c r="Y60" s="85"/>
+      <c r="Z60" s="85"/>
+      <c r="AA60" s="85"/>
+      <c r="AB60" s="85"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7555,6 +7552,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="K16:S16"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="K40:S40"/>
@@ -7571,39 +7601,6 @@
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7614,11 +7611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="7" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7640,23 +7637,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -7664,21 +7661,21 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -7686,21 +7683,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -7708,89 +7705,89 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="103" t="str">
+      <c r="A4" s="124" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104" t="str">
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="105" t="str">
+      <c r="A5" s="126" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="104" t="str">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="125" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="106" t="str">
+      <c r="A6" s="127" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="104" t="str">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="125" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="107" t="str">
+      <c r="G6" s="125"/>
+      <c r="H6" s="128" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 171.600,00</v>
-      </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="108" t="str">
+        <v xml:space="preserve"> Custo= R$ 168.800,00</v>
+      </c>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="129" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 429</v>
-      </c>
-      <c r="O6" s="108"/>
+        <v>PF  = 422</v>
+      </c>
+      <c r="O6" s="129"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -7798,14 +7795,14 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
@@ -7833,23 +7830,23 @@
       <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
@@ -8077,14 +8074,14 @@
       <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="18" t="s">
         <v>45</v>
       </c>
@@ -8124,12 +8121,12 @@
       <c r="T13" s="101"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19" t="s">
         <v>37</v>
@@ -8163,14 +8160,14 @@
       <c r="T14" s="101"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
@@ -8210,14 +8207,14 @@
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="18" t="s">
         <v>39</v>
       </c>
@@ -8257,14 +8254,14 @@
       <c r="T16" s="101"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="18" t="s">
         <v>39</v>
       </c>
@@ -8304,14 +8301,14 @@
       <c r="T17" s="101"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
@@ -8351,14 +8348,14 @@
       <c r="T18" s="101"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="18" t="s">
         <v>42</v>
       </c>
@@ -8398,12 +8395,12 @@
       <c r="T19" s="101"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19" t="s">
         <v>37</v>
@@ -8437,14 +8434,14 @@
       <c r="T20" s="101"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="18" t="s">
         <v>36</v>
       </c>
@@ -8484,14 +8481,14 @@
       <c r="T21" s="101"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="18" t="s">
         <v>39</v>
       </c>
@@ -8531,14 +8528,14 @@
       <c r="T22" s="101"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="18" t="s">
         <v>39</v>
       </c>
@@ -8578,14 +8575,14 @@
       <c r="T23" s="101"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
@@ -8625,14 +8622,14 @@
       <c r="T24" s="101"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="18" t="s">
         <v>42</v>
       </c>
@@ -8987,14 +8984,14 @@
       <c r="T32" s="101"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="18" t="s">
         <v>36</v>
       </c>
@@ -9034,14 +9031,14 @@
       <c r="T33" s="101"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
       <c r="G34" s="18" t="s">
         <v>39</v>
       </c>
@@ -9081,14 +9078,14 @@
       <c r="T34" s="101"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="18" t="s">
         <v>39</v>
       </c>
@@ -9121,21 +9118,21 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P35" s="117"/>
+      <c r="P35" s="107"/>
       <c r="Q35" s="101"/>
       <c r="R35" s="101"/>
       <c r="S35" s="101"/>
       <c r="T35" s="101"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="18" t="s">
         <v>39</v>
       </c>
@@ -9168,21 +9165,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P36" s="117"/>
+      <c r="P36" s="107"/>
       <c r="Q36" s="101"/>
       <c r="R36" s="101"/>
       <c r="S36" s="101"/>
       <c r="T36" s="101"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
       <c r="G37" s="18" t="s">
         <v>42</v>
       </c>
@@ -9215,19 +9212,19 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P37" s="117"/>
+      <c r="P37" s="107"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="101"/>
       <c r="S37" s="101"/>
       <c r="T37" s="101"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="126"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19" t="s">
         <v>37</v>
@@ -9254,21 +9251,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="117"/>
+      <c r="P38" s="107"/>
       <c r="Q38" s="101"/>
       <c r="R38" s="101"/>
       <c r="S38" s="101"/>
       <c r="T38" s="101"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="114" t="s">
+      <c r="A39" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="18" t="s">
         <v>36</v>
       </c>
@@ -9301,21 +9298,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P39" s="117"/>
+      <c r="P39" s="107"/>
       <c r="Q39" s="101"/>
       <c r="R39" s="101"/>
       <c r="S39" s="101"/>
       <c r="T39" s="101"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
@@ -9348,21 +9345,21 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P40" s="117"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="101"/>
       <c r="R40" s="101"/>
       <c r="S40" s="101"/>
       <c r="T40" s="101"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="18" t="s">
         <v>39</v>
       </c>
@@ -9402,14 +9399,14 @@
       <c r="T41" s="101"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="18" t="s">
         <v>39</v>
       </c>
@@ -9449,14 +9446,14 @@
       <c r="T42" s="101"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="18" t="s">
         <v>42</v>
       </c>
@@ -9535,14 +9532,14 @@
       <c r="T44" s="101"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
       <c r="G45" s="18" t="s">
         <v>36</v>
       </c>
@@ -9582,14 +9579,14 @@
       <c r="T45" s="101"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
       <c r="G46" s="18" t="s">
         <v>39</v>
       </c>
@@ -9629,14 +9626,14 @@
       <c r="T46" s="101"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
       <c r="G47" s="18" t="s">
         <v>39</v>
       </c>
@@ -9676,14 +9673,14 @@
       <c r="T47" s="101"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
       <c r="G48" s="18" t="s">
         <v>39</v>
       </c>
@@ -9723,14 +9720,14 @@
       <c r="T48" s="101"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
       <c r="G49" s="18" t="s">
         <v>42</v>
       </c>
@@ -9809,14 +9806,14 @@
       <c r="T50" s="101"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
       <c r="G51" s="18" t="s">
         <v>36</v>
       </c>
@@ -9856,14 +9853,14 @@
       <c r="T51" s="101"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
       <c r="G52" s="18" t="s">
         <v>39</v>
       </c>
@@ -9903,14 +9900,14 @@
       <c r="T52" s="101"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="18" t="s">
         <v>39</v>
       </c>
@@ -9950,14 +9947,14 @@
       <c r="T53" s="101"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="115" t="s">
+      <c r="A54" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
       <c r="G54" s="18" t="s">
         <v>39</v>
       </c>
@@ -9997,14 +9994,14 @@
       <c r="T54" s="101"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="115" t="s">
+      <c r="A55" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
       <c r="G55" s="18" t="s">
         <v>42</v>
       </c>
@@ -10083,14 +10080,14 @@
       <c r="T56" s="101"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="18" t="s">
         <v>36</v>
       </c>
@@ -10130,14 +10127,14 @@
       <c r="T57" s="101"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
       <c r="G58" s="18" t="s">
         <v>39</v>
       </c>
@@ -10177,14 +10174,14 @@
       <c r="T58" s="101"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
       <c r="G59" s="18" t="s">
         <v>39</v>
       </c>
@@ -10224,14 +10221,14 @@
       <c r="T59" s="101"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
       <c r="G60" s="18" t="s">
         <v>39</v>
       </c>
@@ -10271,14 +10268,14 @@
       <c r="T60" s="101"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
       <c r="G61" s="18" t="s">
         <v>42</v>
       </c>
@@ -10396,14 +10393,14 @@
       <c r="T63" s="101"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="127" t="s">
+      <c r="A64" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="18" t="s">
         <v>36</v>
       </c>
@@ -10443,14 +10440,14 @@
       <c r="T64" s="101"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
       <c r="G65" s="18" t="s">
         <v>39</v>
       </c>
@@ -10490,14 +10487,14 @@
       <c r="T65" s="101"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="115" t="s">
+      <c r="A66" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="115"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
       <c r="G66" s="18" t="s">
         <v>39</v>
       </c>
@@ -10537,14 +10534,14 @@
       <c r="T66" s="101"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
       <c r="G67" s="18" t="s">
         <v>39</v>
       </c>
@@ -10623,14 +10620,14 @@
       <c r="T68" s="101"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
       <c r="G69" s="18" t="s">
         <v>36</v>
       </c>
@@ -10670,14 +10667,14 @@
       <c r="T69" s="101"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
       <c r="G70" s="18" t="s">
         <v>39</v>
       </c>
@@ -10717,14 +10714,14 @@
       <c r="T70" s="101"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="115" t="s">
+      <c r="A71" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="115"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="115"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
       <c r="G71" s="18" t="s">
         <v>39</v>
       </c>
@@ -10764,14 +10761,14 @@
       <c r="T71" s="101"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="115"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="112"/>
       <c r="G72" s="18" t="s">
         <v>39</v>
       </c>
@@ -10897,14 +10894,14 @@
       <c r="T74" s="101"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="127" t="s">
+      <c r="A75" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="18" t="s">
         <v>36</v>
       </c>
@@ -10944,14 +10941,14 @@
       <c r="T75" s="101"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="115" t="s">
+      <c r="A76" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
       <c r="G76" s="18" t="s">
         <v>39</v>
       </c>
@@ -10991,14 +10988,14 @@
       <c r="T76" s="101"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
       <c r="G77" s="18" t="s">
         <v>39</v>
       </c>
@@ -11038,14 +11035,14 @@
       <c r="T77" s="101"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="115" t="s">
+      <c r="A78" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
       <c r="G78" s="18" t="s">
         <v>39</v>
       </c>
@@ -11180,7 +11177,7 @@
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="100"/>
       <c r="C81" s="100"/>
@@ -11265,14 +11262,14 @@
       <c r="T82" s="101"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="128" t="s">
+      <c r="A83" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="130"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="115"/>
       <c r="G83" s="18" t="s">
         <v>36</v>
       </c>
@@ -11312,14 +11309,14 @@
       <c r="T83" s="101"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="119"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="119"/>
-      <c r="E84" s="119"/>
-      <c r="F84" s="120"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="118"/>
       <c r="G84" s="18" t="s">
         <v>39</v>
       </c>
@@ -11359,14 +11356,14 @@
       <c r="T84" s="101"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="115" t="s">
+      <c r="A85" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="115"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
       <c r="G85" s="18" t="s">
         <v>39</v>
       </c>
@@ -11399,21 +11396,21 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P85" s="117"/>
+      <c r="P85" s="107"/>
       <c r="Q85" s="101"/>
       <c r="R85" s="101"/>
       <c r="S85" s="101"/>
       <c r="T85" s="101"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="115" t="s">
+      <c r="A86" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
       <c r="G86" s="18" t="s">
         <v>39</v>
       </c>
@@ -11446,7 +11443,7 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P86" s="117"/>
+      <c r="P86" s="107"/>
       <c r="Q86" s="101"/>
       <c r="R86" s="101"/>
       <c r="S86" s="101"/>
@@ -11548,7 +11545,7 @@
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="100"/>
       <c r="C89" s="100"/>
@@ -11633,14 +11630,14 @@
       <c r="T90" s="101"/>
     </row>
     <row r="91" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="127" t="s">
+      <c r="A91" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="127"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="18" t="s">
         <v>36</v>
       </c>
@@ -11680,14 +11677,14 @@
       <c r="T91" s="101"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="115" t="s">
+      <c r="A92" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="115"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="112"/>
       <c r="G92" s="18" t="s">
         <v>39</v>
       </c>
@@ -11727,14 +11724,14 @@
       <c r="T92" s="101"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="115" t="s">
+      <c r="A93" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="115"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
-      <c r="E93" s="115"/>
-      <c r="F93" s="115"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="112"/>
       <c r="G93" s="18" t="s">
         <v>39</v>
       </c>
@@ -11774,14 +11771,14 @@
       <c r="T93" s="101"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="115" t="s">
+      <c r="A94" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="115"/>
-      <c r="C94" s="115"/>
-      <c r="D94" s="115"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="115"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
       <c r="G94" s="18" t="s">
         <v>39</v>
       </c>
@@ -11799,7 +11796,7 @@
         <v>EEL</v>
       </c>
       <c r="L94" s="20" t="str">
-        <f t="shared" ref="L94:L119" si="13">IF(OR(ISBLANK(I94),ISBLANK(J94)),IF(OR(G94="ALI",G94="AIE"),"L",IF(ISBLANK(G94),"","A")),IF(G94="EE",IF(J94&gt;=3,IF(I94&gt;=5,"H","A"),IF(J94&gt;=2,IF(I94&gt;=16,"H",IF(I94&lt;=4,"L","A")),IF(I94&lt;=15,"L","A"))),IF(OR(G94="SE",G94="CE"),IF(J94&gt;=4,IF(I94&gt;=6,"H","A"),IF(J94&gt;=2,IF(I94&gt;=20,"H",IF(I94&lt;=5,"L","A")),IF(I94&lt;=19,"L","A"))),IF(OR(G94="ALI",G94="AIE"),IF(J94&gt;=6,IF(I94&gt;=20,"H","A"),IF(J94&gt;=2,IF(I94&gt;=51,"H",IF(I94&lt;=19,"L","A")),IF(I94&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L94:L115" si="13">IF(OR(ISBLANK(I94),ISBLANK(J94)),IF(OR(G94="ALI",G94="AIE"),"L",IF(ISBLANK(G94),"","A")),IF(G94="EE",IF(J94&gt;=3,IF(I94&gt;=5,"H","A"),IF(J94&gt;=2,IF(I94&gt;=16,"H",IF(I94&lt;=4,"L","A")),IF(I94&lt;=15,"L","A"))),IF(OR(G94="SE",G94="CE"),IF(J94&gt;=4,IF(I94&gt;=6,"H","A"),IF(J94&gt;=2,IF(I94&gt;=20,"H",IF(I94&lt;=5,"L","A")),IF(I94&lt;=19,"L","A"))),IF(OR(G94="ALI",G94="AIE"),IF(J94&gt;=6,IF(I94&gt;=20,"H","A"),IF(J94&gt;=2,IF(I94&gt;=51,"H",IF(I94&lt;=19,"L","A")),IF(I94&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M94" s="21" t="str">
@@ -11807,7 +11804,7 @@
         <v>Baixa</v>
       </c>
       <c r="N94" s="22">
-        <f t="shared" ref="N94:N119" si="15">IF(ISBLANK(G94),"",IF(G94="ALI",IF(L94="L",7,IF(L94="A",10,15)),IF(G94="AIE",IF(L94="L",5,IF(L94="A",7,10)),IF(G94="SE",IF(L94="L",4,IF(L94="A",5,7)),IF(OR(G94="EE",G94="CE"),IF(L94="L",3,IF(L94="A",4,6)))))))</f>
+        <f t="shared" ref="N94:N115" si="15">IF(ISBLANK(G94),"",IF(G94="ALI",IF(L94="L",7,IF(L94="A",10,15)),IF(G94="AIE",IF(L94="L",5,IF(L94="A",7,10)),IF(G94="SE",IF(L94="L",4,IF(L94="A",5,7)),IF(OR(G94="EE",G94="CE"),IF(L94="L",3,IF(L94="A",4,6)))))))</f>
         <v>3</v>
       </c>
       <c r="O94" s="23">
@@ -12009,12 +12006,12 @@
       <c r="T98" s="101"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
-      <c r="A99" s="124"/>
-      <c r="B99" s="125"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="126"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="110"/>
       <c r="G99" s="18"/>
       <c r="H99" s="19" t="s">
         <v>37</v>
@@ -12048,14 +12045,14 @@
       <c r="T99" s="101"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
-      <c r="A100" s="121" t="s">
+      <c r="A100" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="122"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="123"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="106"/>
       <c r="G100" s="18" t="s">
         <v>36</v>
       </c>
@@ -12095,14 +12092,14 @@
       <c r="T100" s="101"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
-      <c r="A101" s="124" t="s">
+      <c r="A101" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="125"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="125"/>
-      <c r="E101" s="125"/>
-      <c r="F101" s="126"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="109"/>
+      <c r="F101" s="110"/>
       <c r="G101" s="18" t="s">
         <v>39</v>
       </c>
@@ -12135,21 +12132,21 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P101" s="117"/>
+      <c r="P101" s="107"/>
       <c r="Q101" s="101"/>
       <c r="R101" s="101"/>
       <c r="S101" s="101"/>
       <c r="T101" s="101"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="124" t="s">
+      <c r="A102" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="125"/>
-      <c r="C102" s="125"/>
-      <c r="D102" s="125"/>
-      <c r="E102" s="125"/>
-      <c r="F102" s="126"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="109"/>
+      <c r="F102" s="110"/>
       <c r="G102" s="18" t="s">
         <v>39</v>
       </c>
@@ -12182,7 +12179,7 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P102" s="117"/>
+      <c r="P102" s="107"/>
       <c r="Q102" s="101"/>
       <c r="R102" s="101"/>
       <c r="S102" s="101"/>
@@ -12229,7 +12226,7 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P103" s="117"/>
+      <c r="P103" s="107"/>
       <c r="Q103" s="101"/>
       <c r="R103" s="101"/>
       <c r="S103" s="101"/>
@@ -12276,7 +12273,7 @@
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P104" s="117"/>
+      <c r="P104" s="107"/>
       <c r="Q104" s="101"/>
       <c r="R104" s="101"/>
       <c r="S104" s="101"/>
@@ -12322,14 +12319,14 @@
       <c r="T105" s="101"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
-      <c r="A106" s="131" t="s">
+      <c r="A106" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="131"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="131"/>
-      <c r="F106" s="131"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
       <c r="G106" s="18" t="s">
         <v>36</v>
       </c>
@@ -12340,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K106" s="18" t="str">
         <f t="shared" si="12"/>
@@ -12384,10 +12381,10 @@
         <v>37</v>
       </c>
       <c r="I107" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K107" s="18" t="str">
         <f t="shared" si="12"/>
@@ -12431,10 +12428,10 @@
         <v>37</v>
       </c>
       <c r="I108" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J108" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K108" s="18" t="str">
         <f t="shared" si="12"/>
@@ -12502,14 +12499,14 @@
       <c r="T109" s="101"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
-      <c r="A110" s="111" t="s">
+      <c r="A110" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
       <c r="G110" s="18"/>
       <c r="H110" s="19" t="s">
         <v>37</v>
@@ -12658,7 +12655,7 @@
         <v>3</v>
       </c>
       <c r="K113" s="18" t="str">
-        <f t="shared" ref="K113:K119" si="16">CONCATENATE(G113,L113)</f>
+        <f t="shared" ref="K113:K118" si="16">CONCATENATE(G113,L113)</f>
         <v>SEA</v>
       </c>
       <c r="L113" s="20" t="str">
@@ -12666,7 +12663,7 @@
         <v>A</v>
       </c>
       <c r="M113" s="21" t="str">
-        <f t="shared" ref="M113:M119" si="17">IF(L113="L","Baixa",IF(L113="A","Média",IF(L113="","","Alta")))</f>
+        <f t="shared" ref="M113:M118" si="17">IF(L113="L","Baixa",IF(L113="A","Média",IF(L113="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N113" s="22">
@@ -12919,46 +12916,6 @@
       <c r="T118" s="101"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
-      <c r="A119" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="100"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="100"/>
-      <c r="E119" s="100"/>
-      <c r="F119" s="100"/>
-      <c r="G119" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I119" s="18">
-        <v>20</v>
-      </c>
-      <c r="J119" s="18">
-        <v>2</v>
-      </c>
-      <c r="K119" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v>SEH</v>
-      </c>
-      <c r="L119" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>H</v>
-      </c>
-      <c r="M119" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v>Alta</v>
-      </c>
-      <c r="N119" s="22">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="O119" s="23">
-        <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
       <c r="P119" s="101"/>
       <c r="Q119" s="101"/>
       <c r="R119" s="101"/>
@@ -12972,27 +12929,210 @@
       <c r="S120" s="101"/>
       <c r="T120" s="101"/>
     </row>
-    <row r="121" spans="1:20" ht="18" customHeight="1">
-      <c r="P121" s="101"/>
-      <c r="Q121" s="101"/>
-      <c r="R121" s="101"/>
-      <c r="S121" s="101"/>
-      <c r="T121" s="101"/>
-    </row>
   </sheetData>
-  <mergeCells count="236">
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="A118:F118"/>
+  <mergeCells count="234">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="P106:T106"/>
     <mergeCell ref="P120:T120"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="P121:T121"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="P98:T98"/>
     <mergeCell ref="A97:F97"/>
@@ -13016,207 +13156,15 @@
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="P109:T109"/>
     <mergeCell ref="A108:F108"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="P116:T116"/>
   </mergeCells>
   <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="122" priority="29" operator="equal">
@@ -13544,21 +13492,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:T12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="18" t="s">
         <v>36</v>
       </c>
@@ -13598,14 +13546,14 @@
       <c r="T1" s="101"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="18" t="s">
         <v>39</v>
       </c>
@@ -13645,14 +13593,14 @@
       <c r="T2" s="101"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
@@ -13692,14 +13640,14 @@
       <c r="T3" s="101"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
@@ -13739,14 +13687,14 @@
       <c r="T4" s="101"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18" t="s">
         <v>42</v>
       </c>
@@ -13786,14 +13734,14 @@
       <c r="T5" s="101"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="18" t="s">
         <v>36</v>
       </c>
@@ -13833,14 +13781,14 @@
       <c r="T6" s="101"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="18" t="s">
         <v>39</v>
       </c>
@@ -13880,14 +13828,14 @@
       <c r="T7" s="101"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="18" t="s">
         <v>39</v>
       </c>
@@ -13927,14 +13875,14 @@
       <c r="T8" s="101"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
@@ -13974,14 +13922,14 @@
       <c r="T9" s="101"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="18" t="s">
         <v>36</v>
       </c>
@@ -14021,14 +13969,14 @@
       <c r="T10" s="101"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
@@ -14068,14 +14016,14 @@
       <c r="T11" s="101"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
@@ -14115,14 +14063,14 @@
       <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="18" t="s">
         <v>39</v>
       </c>
@@ -14209,14 +14157,14 @@
       <c r="T14" s="101"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
@@ -14256,14 +14204,14 @@
       <c r="T15" s="101"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="18" t="s">
         <v>39</v>
       </c>
@@ -14303,14 +14251,14 @@
       <c r="T16" s="101"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="18" t="s">
         <v>39</v>
       </c>
@@ -14350,14 +14298,14 @@
       <c r="T17" s="101"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
@@ -14484,7 +14432,7 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P20" s="117"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="101"/>
       <c r="R20" s="101"/>
       <c r="S20" s="101"/>
@@ -14492,7 +14440,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
@@ -14531,21 +14479,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P21" s="117"/>
+      <c r="P21" s="107"/>
       <c r="Q21" s="101"/>
       <c r="R21" s="101"/>
       <c r="S21" s="101"/>
       <c r="T21" s="101"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="18" t="s">
         <v>36</v>
       </c>
@@ -14585,14 +14533,14 @@
       <c r="T22" s="101"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
       <c r="G23" s="18" t="s">
         <v>39</v>
       </c>
@@ -14632,14 +14580,14 @@
       <c r="T23" s="101"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
@@ -14679,14 +14627,14 @@
       <c r="T24" s="101"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="18" t="s">
         <v>39</v>
       </c>
@@ -14766,7 +14714,7 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P26" s="117"/>
+      <c r="P26" s="107"/>
       <c r="Q26" s="101"/>
       <c r="R26" s="101"/>
       <c r="S26" s="101"/>
@@ -14813,7 +14761,7 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P27" s="117"/>
+      <c r="P27" s="107"/>
       <c r="Q27" s="101"/>
       <c r="R27" s="101"/>
       <c r="S27" s="101"/>
@@ -14821,7 +14769,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="100"/>
@@ -14860,21 +14808,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P28" s="117"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="101"/>
       <c r="R28" s="101"/>
       <c r="S28" s="101"/>
       <c r="T28" s="101"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="18" t="s">
         <v>36</v>
       </c>
@@ -14907,21 +14855,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P29" s="117"/>
+      <c r="P29" s="107"/>
       <c r="Q29" s="101"/>
       <c r="R29" s="101"/>
       <c r="S29" s="101"/>
       <c r="T29" s="101"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="18" t="s">
         <v>39</v>
       </c>
@@ -14961,14 +14909,14 @@
       <c r="T30" s="101"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="18" t="s">
         <v>39</v>
       </c>
@@ -15008,14 +14956,14 @@
       <c r="T31" s="101"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="18" t="s">
         <v>39</v>
       </c>
@@ -15055,14 +15003,14 @@
       <c r="T32" s="101"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="18" t="s">
         <v>42</v>
       </c>
@@ -15102,14 +15050,14 @@
       <c r="T33" s="101"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
       <c r="I34" s="18"/>
@@ -15129,12 +15077,12 @@
       <c r="T34" s="101"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
       <c r="I35" s="18"/>
@@ -15151,12 +15099,12 @@
       <c r="T35" s="101"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
       <c r="I36" s="18"/>
@@ -15245,7 +15193,10 @@
       <c r="D40" s="100"/>
       <c r="E40" s="100"/>
       <c r="F40" s="100"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="18">
+        <f>99+155+141</f>
+        <v>395</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -15261,50 +15212,43 @@
       <c r="T40" s="101"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="P29:T29"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="A26:F26"/>
@@ -15321,35 +15265,42 @@
     <mergeCell ref="P23:T23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="P6:T6"/>
   </mergeCells>
   <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
@@ -15463,10 +15414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="N1" sqref="N1:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -15514,14 +15465,14 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="18" t="s">
         <v>39</v>
       </c>
@@ -15556,14 +15507,14 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
@@ -15598,14 +15549,14 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
@@ -15808,14 +15759,14 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="18" t="s">
         <v>36</v>
       </c>
@@ -15850,14 +15801,14 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
@@ -15892,14 +15843,14 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
@@ -16052,14 +16003,14 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="18" t="s">
         <v>36</v>
       </c>
@@ -16346,14 +16297,14 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
@@ -16388,14 +16339,14 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="18" t="s">
         <v>45</v>
       </c>
@@ -16445,19 +16396,19 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18" t="str">
-        <f t="shared" ref="K27:K36" si="12">CONCATENATE(G27,L27)</f>
+        <f t="shared" ref="K27:K35" si="12">CONCATENATE(G27,L27)</f>
         <v/>
       </c>
       <c r="L27" s="20" t="str">
-        <f t="shared" ref="L27:L36" si="13">IF(OR(ISBLANK(I27),ISBLANK(J27)),IF(OR(G27="ALI",G27="AIE"),"L",IF(ISBLANK(G27),"","A")),IF(G27="EE",IF(J27&gt;=3,IF(I27&gt;=5,"H","A"),IF(J27&gt;=2,IF(I27&gt;=16,"H",IF(I27&lt;=4,"L","A")),IF(I27&lt;=15,"L","A"))),IF(OR(G27="SE",G27="CE"),IF(J27&gt;=4,IF(I27&gt;=6,"H","A"),IF(J27&gt;=2,IF(I27&gt;=20,"H",IF(I27&lt;=5,"L","A")),IF(I27&lt;=19,"L","A"))),IF(OR(G27="ALI",G27="AIE"),IF(J27&gt;=6,IF(I27&gt;=20,"H","A"),IF(J27&gt;=2,IF(I27&gt;=51,"H",IF(I27&lt;=19,"L","A")),IF(I27&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L27:L32" si="13">IF(OR(ISBLANK(I27),ISBLANK(J27)),IF(OR(G27="ALI",G27="AIE"),"L",IF(ISBLANK(G27),"","A")),IF(G27="EE",IF(J27&gt;=3,IF(I27&gt;=5,"H","A"),IF(J27&gt;=2,IF(I27&gt;=16,"H",IF(I27&lt;=4,"L","A")),IF(I27&lt;=15,"L","A"))),IF(OR(G27="SE",G27="CE"),IF(J27&gt;=4,IF(I27&gt;=6,"H","A"),IF(J27&gt;=2,IF(I27&gt;=20,"H",IF(I27&lt;=5,"L","A")),IF(I27&lt;=19,"L","A"))),IF(OR(G27="ALI",G27="AIE"),IF(J27&gt;=6,IF(I27&gt;=20,"H","A"),IF(J27&gt;=2,IF(I27&gt;=51,"H",IF(I27&lt;=19,"L","A")),IF(I27&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="shared" ref="M27:M36" si="14">IF(L27="L","Baixa",IF(L27="A","Média",IF(L27="","","Alta")))</f>
+        <f t="shared" ref="M27:M35" si="14">IF(L27="L","Baixa",IF(L27="A","Média",IF(L27="","","Alta")))</f>
         <v/>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" ref="N27:N36" si="15">IF(ISBLANK(G27),"",IF(G27="ALI",IF(L27="L",7,IF(L27="A",10,15)),IF(G27="AIE",IF(L27="L",5,IF(L27="A",7,10)),IF(G27="SE",IF(L27="L",4,IF(L27="A",5,7)),IF(OR(G27="EE",G27="CE"),IF(L27="L",3,IF(L27="A",4,6)))))))</f>
+        <f t="shared" ref="N27:N32" si="15">IF(ISBLANK(G27),"",IF(G27="ALI",IF(L27="L",7,IF(L27="A",10,15)),IF(G27="AIE",IF(L27="L",5,IF(L27="A",7,10)),IF(G27="SE",IF(L27="L",4,IF(L27="A",5,7)),IF(OR(G27="EE",G27="CE"),IF(L27="L",3,IF(L27="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O27" s="23" t="e">
@@ -16802,67 +16753,67 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="18">
-        <v>20</v>
-      </c>
-      <c r="J36" s="18">
-        <v>2</v>
-      </c>
-      <c r="K36" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>SEH</v>
-      </c>
-      <c r="L36" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>H</v>
-      </c>
-      <c r="M36" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Alta</v>
-      </c>
-      <c r="N36" s="22">
-        <f t="shared" si="15"/>
+      <c r="A36" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="83">
+        <f>SUM(N1:N35)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="18">
+        <v>4</v>
+      </c>
+      <c r="J38" s="18">
+        <v>3</v>
+      </c>
+      <c r="K38" s="18" t="str">
+        <f t="shared" ref="K38:K42" si="16">CONCATENATE(G38,L38)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="L38" s="20" t="str">
+        <f t="shared" ref="L38:L42" si="17">IF(OR(ISBLANK(I38),ISBLANK(J38)),IF(OR(G38="ALI",G38="AIE"),"L",IF(ISBLANK(G38),"","A")),IF(G38="EE",IF(J38&gt;=3,IF(I38&gt;=5,"H","A"),IF(J38&gt;=2,IF(I38&gt;=16,"H",IF(I38&lt;=4,"L","A")),IF(I38&lt;=15,"L","A"))),IF(OR(G38="SE",G38="CE"),IF(J38&gt;=4,IF(I38&gt;=6,"H","A"),IF(J38&gt;=2,IF(I38&gt;=20,"H",IF(I38&lt;=5,"L","A")),IF(I38&lt;=19,"L","A"))),IF(OR(G38="ALI",G38="AIE"),IF(J38&gt;=6,IF(I38&gt;=20,"H","A"),IF(J38&gt;=2,IF(I38&gt;=51,"H",IF(I38&lt;=19,"L","A")),IF(I38&lt;=50,"L","A")))))))</f>
+        <v>L</v>
+      </c>
+      <c r="M38" s="21" t="str">
+        <f t="shared" ref="M38:M42" si="18">IF(L38="L","Baixa",IF(L38="A","Média",IF(L38="","","Alta")))</f>
+        <v>Baixa</v>
+      </c>
+      <c r="N38" s="22">
+        <f t="shared" ref="N38:N42" si="19">IF(ISBLANK(G38),"",IF(G38="ALI",IF(L38="L",7,IF(L38="A",10,15)),IF(G38="AIE",IF(L38="L",5,IF(L38="A",7,10)),IF(G38="SE",IF(L38="L",4,IF(L38="A",5,7)),IF(OR(G38="EE",G38="CE"),IF(L38="L",3,IF(L38="A",4,6)))))))</f>
         <v>7</v>
       </c>
-      <c r="O36" s="23">
-        <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
+      <c r="O38" s="23">
+        <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="N37" s="83">
-        <f>SUM(N1:N36)</f>
-        <v>141</v>
-      </c>
-    </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
+      <c r="A39" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
       <c r="G39" s="18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>37</v>
@@ -16874,35 +16825,35 @@
         <v>3</v>
       </c>
       <c r="K39" s="18" t="str">
-        <f t="shared" ref="K39:K43" si="16">CONCATENATE(G39,L39)</f>
-        <v>ALIL</v>
+        <f t="shared" si="16"/>
+        <v>EEA</v>
       </c>
       <c r="L39" s="20" t="str">
-        <f t="shared" ref="L39:L43" si="17">IF(OR(ISBLANK(I39),ISBLANK(J39)),IF(OR(G39="ALI",G39="AIE"),"L",IF(ISBLANK(G39),"","A")),IF(G39="EE",IF(J39&gt;=3,IF(I39&gt;=5,"H","A"),IF(J39&gt;=2,IF(I39&gt;=16,"H",IF(I39&lt;=4,"L","A")),IF(I39&lt;=15,"L","A"))),IF(OR(G39="SE",G39="CE"),IF(J39&gt;=4,IF(I39&gt;=6,"H","A"),IF(J39&gt;=2,IF(I39&gt;=20,"H",IF(I39&lt;=5,"L","A")),IF(I39&lt;=19,"L","A"))),IF(OR(G39="ALI",G39="AIE"),IF(J39&gt;=6,IF(I39&gt;=20,"H","A"),IF(J39&gt;=2,IF(I39&gt;=51,"H",IF(I39&lt;=19,"L","A")),IF(I39&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <f t="shared" si="17"/>
+        <v>A</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="shared" ref="M39:M43" si="18">IF(L39="L","Baixa",IF(L39="A","Média",IF(L39="","","Alta")))</f>
-        <v>Baixa</v>
+        <f t="shared" si="18"/>
+        <v>Média</v>
       </c>
       <c r="N39" s="22">
-        <f t="shared" ref="N39:N43" si="19">IF(ISBLANK(G39),"",IF(G39="ALI",IF(L39="L",7,IF(L39="A",10,15)),IF(G39="AIE",IF(L39="L",5,IF(L39="A",7,10)),IF(G39="SE",IF(L39="L",4,IF(L39="A",5,7)),IF(OR(G39="EE",G39="CE"),IF(L39="L",3,IF(L39="A",4,6)))))))</f>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="O39" s="23">
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
+      <c r="A40" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
@@ -16937,14 +16888,14 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
+      <c r="A41" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="18" t="s">
         <v>39</v>
       </c>
@@ -16952,7 +16903,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" s="18">
         <v>3</v>
@@ -16979,16 +16930,16 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
+      <c r="A42" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>37</v>
@@ -17001,104 +16952,36 @@
       </c>
       <c r="K42" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>EEA</v>
+        <v>CEL</v>
       </c>
       <c r="L42" s="20" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M42" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N42" s="22">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O42" s="23">
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="18">
-        <v>2</v>
-      </c>
-      <c r="J43" s="18">
-        <v>3</v>
-      </c>
-      <c r="K43" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v>CEL</v>
-      </c>
-      <c r="L43" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v>L</v>
-      </c>
-      <c r="M43" s="21" t="str">
-        <f t="shared" si="18"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N43" s="22">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="O43" s="23">
-        <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="82" t="s">
+      <c r="A43" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N44" s="83">
-        <f>141+22</f>
-        <v>163</v>
+      <c r="N43" s="83">
+        <f>134+22</f>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
+  <mergeCells count="37">
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17111,6 +16994,31 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
@@ -17302,8 +17210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -17313,14 +17221,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
       <c r="G1" s="63" t="s">
         <v>27</v>
       </c>
@@ -17350,14 +17258,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.4">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="60" t="s">
         <v>36</v>
       </c>
@@ -17391,14 +17299,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="60" t="s">
         <v>39</v>
       </c>
@@ -17433,14 +17341,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="60" t="s">
         <v>39</v>
       </c>
@@ -17475,14 +17383,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="60" t="s">
         <v>39</v>
       </c>
@@ -17517,14 +17425,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="60" t="s">
         <v>42</v>
       </c>
@@ -17559,21 +17467,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
       <c r="N7" s="77">
         <f>SUM(N2:N6)</f>
         <v>29</v>
@@ -17584,14 +17492,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.4">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
       <c r="G8" s="69" t="s">
         <v>27</v>
       </c>
@@ -17621,14 +17529,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.4">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="60" t="s">
         <v>36</v>
       </c>
@@ -17663,14 +17571,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="151"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="60" t="s">
         <v>39</v>
       </c>
@@ -17705,14 +17613,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.4">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="151"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="60" t="s">
         <v>39</v>
       </c>
@@ -17747,14 +17655,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.4">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="151"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="158"/>
       <c r="G12" s="60" t="s">
         <v>39</v>
       </c>
@@ -17789,14 +17697,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.4">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="151"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="60" t="s">
         <v>42</v>
       </c>
@@ -17831,21 +17739,21 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.4">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="157"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="149"/>
       <c r="N14" s="79">
         <f>SUM(N9:N13)</f>
         <v>21</v>
@@ -17856,14 +17764,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.4">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="69" t="s">
         <v>27</v>
       </c>
@@ -17893,14 +17801,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.4">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="60" t="s">
         <v>36</v>
       </c>
@@ -17935,14 +17843,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.4">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="60" t="s">
         <v>39</v>
       </c>
@@ -17977,14 +17885,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.4">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="60" t="s">
         <v>39</v>
       </c>
@@ -18019,14 +17927,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.4">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="60" t="s">
         <v>39</v>
       </c>
@@ -18061,14 +17969,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="60" t="s">
         <v>42</v>
       </c>
@@ -18128,14 +18036,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.4">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="69" t="s">
         <v>27</v>
       </c>
@@ -18165,14 +18073,14 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.4">
-      <c r="A23" s="158" t="s">
+      <c r="A23" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="60" t="s">
         <v>36</v>
       </c>
@@ -18207,14 +18115,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.4">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="60" t="s">
         <v>39</v>
       </c>
@@ -18249,14 +18157,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.4">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="60" t="s">
         <v>39</v>
       </c>
@@ -18291,14 +18199,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.4">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="60" t="s">
         <v>39</v>
       </c>
@@ -18333,14 +18241,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.4">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="60" t="s">
         <v>42</v>
       </c>
@@ -18401,7 +18309,7 @@
     </row>
     <row r="29" spans="1:15" ht="14.4">
       <c r="A29" s="141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="141"/>
       <c r="C29" s="141"/>
@@ -18422,7 +18330,7 @@
     </row>
     <row r="30" spans="1:15" ht="14.4">
       <c r="A30" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="141"/>
       <c r="C30" s="141"/>
@@ -18444,20 +18352,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A29:M29"/>
@@ -18474,6 +18368,20 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -18521,88 +18429,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="160" t="str">
+      <c r="A4" s="167" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="161" t="str">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="162" t="str">
+      <c r="A5" s="169" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="161" t="str">
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="168" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="29" t="str">
@@ -18613,58 +18521,58 @@
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="163" t="str">
+      <c r="F6" s="160" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163" t="str">
+      <c r="G6" s="160"/>
+      <c r="H6" s="160" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 171.600,00</v>
-      </c>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164" t="str">
+        <v xml:space="preserve"> Custo= R$ 168.800,00</v>
+      </c>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="161" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 429</v>
-      </c>
-      <c r="L6" s="164"/>
+        <v>PF  = 422</v>
+      </c>
+      <c r="L6" s="161"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167" t="s">
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="H7" s="164"/>
+      <c r="I7" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="32"/>
@@ -18789,7 +18697,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="42">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.51981351981351986</v>
+        <v>0.52843601895734593</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -18878,7 +18786,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="36">
         <f>COUNTIF(CF,"SEH")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="37" t="s">
@@ -18889,7 +18797,7 @@
       </c>
       <c r="G19" s="36">
         <f>C19*7</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -18918,7 +18826,7 @@
       </c>
       <c r="C21" s="36">
         <f>SUM(C17:C19)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -18927,12 +18835,12 @@
       </c>
       <c r="G21" s="36">
         <f>SUM(G17:G19)</f>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="45">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.12354312354312354</v>
+        <v>0.10900473933649289</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -19075,7 +18983,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="46">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>9.7902097902097904E-2</v>
+        <v>9.9526066350710901E-2</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -19218,7 +19126,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="47">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.25874125874125875</v>
+        <v>0.26303317535545023</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -19406,7 +19314,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="36">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -19425,7 +19333,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="36">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -19560,14 +19468,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="169" t="s">
+      <c r="B55" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="49">
-        <f>SUMIF(Funções!$H$8:$H$119,"I",Funções!$N$8:$N$119)</f>
-        <v>429</v>
+        <f>SUMIF(Funções!$H$8:$H$118,"I",Funções!$N$8:$N$118)</f>
+        <v>422</v>
       </c>
       <c r="F55" s="49">
         <f>Contagem!U11</f>
@@ -19575,7 +19483,7 @@
       </c>
       <c r="G55" s="49">
         <f>F55*E55</f>
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
@@ -19587,13 +19495,13 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="169" t="s">
+      <c r="B56" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="49">
-        <f>SUMIF(Funções!$H$8:$H$119,"A",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$118,"A",Funções!$N$8:$N$118)</f>
         <v>0</v>
       </c>
       <c r="F56" s="49">
@@ -19609,19 +19517,19 @@
       <c r="J56" s="50"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L56" s="39"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="169" t="s">
+      <c r="B57" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="49">
-        <f>SUMIF(Funções!$H$8:$H$119,"E",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$118,"E",Funções!$N$8:$N$118)</f>
         <v>0</v>
       </c>
       <c r="F57" s="49">
@@ -19640,13 +19548,13 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
       <c r="E58" s="49">
-        <f>SUMIF(Funções!$H$8:$H$119,"T",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$118,"T",Funções!$N$8:$N$118)</f>
         <v>0</v>
       </c>
       <c r="F58" s="49">
@@ -19679,11 +19587,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A7:B8"/>
@@ -19692,11 +19600,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
